--- a/T1DM_09/Carbohidrates.xlsx
+++ b/T1DM_09/Carbohidrates.xlsx
@@ -14,81 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
-  <si>
-    <t>Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Value (g)</t>
-  </si>
-  <si>
-    <t>22.9</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>49.6</t>
-  </si>
-  <si>
-    <t>18.8</t>
-  </si>
-  <si>
-    <t>17.8</t>
-  </si>
-  <si>
-    <t>22.1</t>
-  </si>
-  <si>
-    <t>51.1</t>
-  </si>
-  <si>
-    <t>34.4</t>
-  </si>
-  <si>
-    <t>32.3</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>35.5</t>
-  </si>
-  <si>
-    <t>69.8</t>
-  </si>
-  <si>
-    <t>44.7</t>
-  </si>
-  <si>
-    <t>41.8</t>
-  </si>
-  <si>
-    <t>20.5</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>28.3</t>
-  </si>
-  <si>
-    <t>20.7</t>
-  </si>
-  <si>
-    <t>11.6</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>13.7</t>
-  </si>
-  <si>
-    <t>17.0</t>
   </si>
 </sst>
 </file>
@@ -155,7 +83,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,210 +380,5007 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B625"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>44833.34722222222</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2">
+        <v>22.9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>44833.93402777778</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+        <v>44833.35069444445</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>44833.97222222222</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>44833.35416666666</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>44833.97569444445</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
+        <v>44833.35763888889</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>44833.97569444445</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
+        <v>44833.36111111111</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>44834.45138888889</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
+        <v>44833.36458333334</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>44834.53472222222</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
+        <v>44833.36805555555</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>44834.72222222222</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
+        <v>44833.37152777778</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>44834.85416666666</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
+        <v>44833.375</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>44834.97222222222</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
+        <v>44833.37847222222</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>44835.38194444445</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
+        <v>44833.38194444445</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>44835.57986111111</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
+        <v>44833.38541666666</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>44835.85416666666</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
+        <v>44833.38888888889</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>44835.96875</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
+        <v>44833.39236111111</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>44836.58333333334</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
+        <v>44833.39583333334</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>44836.58680555555</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
+        <v>44833.39930555555</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>44836.59027777778</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
+        <v>44833.40277777778</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>44836.96527777778</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
+        <v>44833.40625</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>44836.96527777778</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
+        <v>44833.40972222222</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>44836.97569444445</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
+        <v>44833.41319444445</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>44837.45833333334</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
+        <v>44833.41666666666</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>44837.56597222222</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
+        <v>44833.42013888889</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>44837.56597222222</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
+        <v>44833.42361111111</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>44837.57986111111</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
+        <v>44833.42708333334</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>44833.43055555555</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
+        <v>44833.43402777778</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
+        <v>44833.4375</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
+        <v>44833.44097222222</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
+        <v>44833.44444444445</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
+        <v>44833.44791666666</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
+        <v>44833.45138888889</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
+        <v>44833.45486111111</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
+        <v>44833.45833333334</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
+        <v>44833.46180555555</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
+        <v>44833.46527777778</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
+        <v>44833.46875</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
+        <v>44833.47222222222</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
+        <v>44833.47569444445</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
+        <v>44833.47916666666</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
+        <v>44833.48263888889</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
+        <v>44833.48611111111</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
+        <v>44833.48958333334</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
+        <v>44833.49305555555</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
+        <v>44833.49652777778</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
+        <v>44833.5</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
+        <v>44833.50347222222</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
+        <v>44833.50694444445</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
+        <v>44833.51041666666</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
+        <v>44833.51388888889</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
+        <v>44833.51736111111</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
+        <v>44833.52083333334</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
+        <v>44833.52430555555</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
+        <v>44833.52777777778</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
+        <v>44833.53125</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
+        <v>44833.53472222222</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
+        <v>44833.53819444445</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
+        <v>44833.54166666666</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
+        <v>44833.54513888889</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
+        <v>44833.54861111111</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
+        <v>44833.55208333334</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
+        <v>44833.55555555555</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
+        <v>44833.55902777778</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
+        <v>44833.5625</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
+        <v>44833.56597222222</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
+        <v>44833.56944444445</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
+        <v>44833.57291666666</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
+        <v>44833.57638888889</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
+        <v>44833.57986111111</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
+        <v>44833.58333333334</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
+        <v>44833.58680555555</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
+        <v>44833.59027777778</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
+        <v>44833.59375</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
+        <v>44833.59722222222</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
+        <v>44833.60069444445</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
+        <v>44833.60416666666</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
+        <v>44833.60763888889</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
+        <v>44833.61111111111</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
+        <v>44833.61458333334</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
+        <v>44833.61805555555</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
+        <v>44833.62152777778</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
+        <v>44833.625</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
+        <v>44833.62847222222</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
+        <v>44833.63194444445</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2">
+        <v>44833.63541666666</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2">
+        <v>44833.63888888889</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2">
+        <v>44833.64236111111</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2">
+        <v>44833.64583333334</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2">
+        <v>44833.64930555555</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2">
+        <v>44833.65277777778</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2">
+        <v>44833.65625</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
+        <v>44833.65972222222</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
+        <v>44833.66319444445</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
+        <v>44833.66666666666</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
+        <v>44833.67013888889</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
+        <v>44833.67361111111</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
+        <v>44833.67708333334</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
+        <v>44833.68055555555</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
+        <v>44833.68402777778</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
+        <v>44833.6875</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
+        <v>44833.69097222222</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
+        <v>44833.69444444445</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
+        <v>44833.69791666666</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
+        <v>44833.70138888889</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
+        <v>44833.70486111111</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
+        <v>44833.70833333334</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
+        <v>44833.71180555555</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
+        <v>44833.71527777778</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
+        <v>44833.71875</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
+        <v>44833.72222222222</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
+        <v>44833.72569444445</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
+        <v>44833.72916666666</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
+        <v>44833.73263888889</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
+        <v>44833.73611111111</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
+        <v>44833.73958333334</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
+        <v>44833.74305555555</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
+        <v>44833.74652777778</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
+        <v>44833.75</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
+        <v>44833.75347222222</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
+        <v>44833.75694444445</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
+        <v>44833.76041666666</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
+        <v>44833.76388888889</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
+        <v>44833.76736111111</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
+        <v>44833.77083333334</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
+        <v>44833.77430555555</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
+        <v>44833.77777777778</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2">
+        <v>44833.78125</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2">
+        <v>44833.78472222222</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
+        <v>44833.78819444445</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
+        <v>44833.79166666666</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
+        <v>44833.79513888889</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
+        <v>44833.79861111111</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
+        <v>44833.80208333334</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
+        <v>44833.80555555555</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
+        <v>44833.80902777778</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
+        <v>44833.8125</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
+        <v>44833.81597222222</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
+        <v>44833.81944444445</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
+        <v>44833.82291666666</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
+        <v>44833.82638888889</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
+        <v>44833.82986111111</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
+        <v>44833.83333333334</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
+        <v>44833.83680555555</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
+        <v>44833.84027777778</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2">
+        <v>44833.84375</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2">
+        <v>44833.84722222222</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2">
+        <v>44833.85069444445</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2">
+        <v>44833.85416666666</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2">
+        <v>44833.85763888889</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2">
+        <v>44833.86111111111</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2">
+        <v>44833.86458333334</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2">
+        <v>44833.86805555555</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2">
+        <v>44833.87152777778</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2">
+        <v>44833.875</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2">
+        <v>44833.87847222222</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2">
+        <v>44833.88194444445</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2">
+        <v>44833.88541666666</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2">
+        <v>44833.88888888889</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2">
+        <v>44833.89236111111</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2">
+        <v>44833.89583333334</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2">
+        <v>44833.89930555555</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2">
+        <v>44833.90277777778</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2">
+        <v>44833.90625</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2">
+        <v>44833.90972222222</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2">
+        <v>44833.91319444445</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2">
+        <v>44833.91666666666</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2">
+        <v>44833.92013888889</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2">
+        <v>44833.92361111111</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2">
+        <v>44833.92708333334</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2">
+        <v>44833.93055555555</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2">
+        <v>44833.93402777778</v>
+      </c>
+      <c r="B171">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2">
+        <v>44833.9375</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2">
+        <v>44833.94097222222</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2">
+        <v>44833.94444444445</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2">
+        <v>44833.94791666666</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2">
+        <v>44833.95138888889</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="2">
+        <v>44833.95486111111</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="2">
+        <v>44833.95833333334</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="2">
+        <v>44833.96180555555</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="2">
+        <v>44833.96527777778</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="2">
+        <v>44833.96875</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="2">
+        <v>44833.97222222222</v>
+      </c>
+      <c r="B182">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="2">
+        <v>44833.97569444445</v>
+      </c>
+      <c r="B183">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="2">
+        <v>44833.97916666666</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="2">
+        <v>44833.98263888889</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="2">
+        <v>44833.98611111111</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="2">
+        <v>44833.98958333334</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="2">
+        <v>44833.99305555555</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="2">
+        <v>44833.99652777778</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="2">
+        <v>44834.00347222222</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="2">
+        <v>44834.00694444445</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="2">
+        <v>44834.01041666666</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2">
+        <v>44834.01388888889</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2">
+        <v>44834.01736111111</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2">
+        <v>44834.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2">
+        <v>44834.02430555555</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2">
+        <v>44834.02777777778</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2">
+        <v>44834.03125</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2">
+        <v>44834.03472222222</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2">
+        <v>44834.03819444445</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2">
+        <v>44834.04166666666</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2">
+        <v>44834.04513888889</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2">
+        <v>44834.04861111111</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2">
+        <v>44834.05208333334</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2">
+        <v>44834.05555555555</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2">
+        <v>44834.05902777778</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2">
+        <v>44834.0625</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2">
+        <v>44834.06597222222</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2">
+        <v>44834.06944444445</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2">
+        <v>44834.07291666666</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2">
+        <v>44834.07638888889</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2">
+        <v>44834.07986111111</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2">
+        <v>44834.08333333334</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2">
+        <v>44834.08680555555</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2">
+        <v>44834.09027777778</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2">
+        <v>44834.09375</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2">
+        <v>44834.09722222222</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2">
+        <v>44834.10069444445</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2">
+        <v>44834.10416666666</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2">
+        <v>44834.10763888889</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2">
+        <v>44834.11111111111</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2">
+        <v>44834.11458333334</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2">
+        <v>44834.11805555555</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2">
+        <v>44834.12152777778</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2">
+        <v>44834.125</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2">
+        <v>44834.12847222222</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2">
+        <v>44834.13194444445</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2">
+        <v>44834.13541666666</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2">
+        <v>44834.13888888889</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2">
+        <v>44834.14236111111</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2">
+        <v>44834.14583333334</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2">
+        <v>44834.14930555555</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2">
+        <v>44834.15277777778</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2">
+        <v>44834.15625</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2">
+        <v>44834.15972222222</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2">
+        <v>44834.16319444445</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2">
+        <v>44834.16666666666</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2">
+        <v>44834.17013888889</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2">
+        <v>44834.17361111111</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2">
+        <v>44834.17708333334</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2">
+        <v>44834.18055555555</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2">
+        <v>44834.18402777778</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2">
+        <v>44834.1875</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2">
+        <v>44834.19097222222</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2">
+        <v>44834.19444444445</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2">
+        <v>44834.19791666666</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2">
+        <v>44834.20138888889</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2">
+        <v>44834.20486111111</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2">
+        <v>44834.20833333334</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2">
+        <v>44834.21180555555</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2">
+        <v>44834.21527777778</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2">
+        <v>44834.21875</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2">
+        <v>44834.22222222222</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2">
+        <v>44834.22569444445</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2">
+        <v>44834.22916666666</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2">
+        <v>44834.23263888889</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2">
+        <v>44834.23611111111</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2">
+        <v>44834.23958333334</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2">
+        <v>44834.24305555555</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2">
+        <v>44834.24652777778</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2">
+        <v>44834.25</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2">
+        <v>44834.25347222222</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2">
+        <v>44834.25694444445</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2">
+        <v>44834.26041666666</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2">
+        <v>44834.26388888889</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2">
+        <v>44834.26736111111</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2">
+        <v>44834.27083333334</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2">
+        <v>44834.27430555555</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2">
+        <v>44834.27777777778</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2">
+        <v>44834.28125</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2">
+        <v>44834.28472222222</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2">
+        <v>44834.28819444445</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2">
+        <v>44834.29166666666</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2">
+        <v>44834.29513888889</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2">
+        <v>44834.29861111111</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2">
+        <v>44834.30208333334</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2">
+        <v>44834.30555555555</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2">
+        <v>44834.30902777778</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2">
+        <v>44834.3125</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2">
+        <v>44834.31597222222</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2">
+        <v>44834.31944444445</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2">
+        <v>44834.32291666666</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2">
+        <v>44834.32638888889</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2">
+        <v>44834.32986111111</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2">
+        <v>44834.33333333334</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2">
+        <v>44834.33680555555</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2">
+        <v>44834.34027777778</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2">
+        <v>44834.34375</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="2">
+        <v>44834.34722222222</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="2">
+        <v>44834.35069444445</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="2">
+        <v>44834.35416666666</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="2">
+        <v>44834.35763888889</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="2">
+        <v>44834.36111111111</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="2">
+        <v>44834.36458333334</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="2">
+        <v>44834.36805555555</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="2">
+        <v>44834.37152777778</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="2">
+        <v>44834.375</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="2">
+        <v>44834.37847222222</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="2">
+        <v>44834.38194444445</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="2">
+        <v>44834.38541666666</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="2">
+        <v>44834.38888888889</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="2">
+        <v>44834.39236111111</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="2">
+        <v>44834.39583333334</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="2">
+        <v>44834.39930555555</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="2">
+        <v>44834.40277777778</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="2">
+        <v>44834.40625</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="2">
+        <v>44834.40972222222</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="2">
+        <v>44834.41319444445</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="2">
+        <v>44834.41666666666</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="2">
+        <v>44834.42013888889</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="2">
+        <v>44834.42361111111</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="2">
+        <v>44834.42708333334</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="2">
+        <v>44834.43055555555</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="2">
+        <v>44834.43402777778</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="2">
+        <v>44834.4375</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="2">
+        <v>44834.44097222222</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="2">
+        <v>44834.44444444445</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="2">
+        <v>44834.44791666666</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="2">
+        <v>44834.45138888889</v>
+      </c>
+      <c r="B320">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="2">
+        <v>44834.45486111111</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="2">
+        <v>44834.45833333334</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="2">
+        <v>44834.46180555555</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="2">
+        <v>44834.46527777778</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="2">
+        <v>44834.46875</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="2">
+        <v>44834.47222222222</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="2">
+        <v>44834.47569444445</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="2">
+        <v>44834.47916666666</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="2">
+        <v>44834.48263888889</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="2">
+        <v>44834.48611111111</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="2">
+        <v>44834.48958333334</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="2">
+        <v>44834.49305555555</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="2">
+        <v>44834.49652777778</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="2">
+        <v>44834.5</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="2">
+        <v>44834.50347222222</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="2">
+        <v>44834.50694444445</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="2">
+        <v>44834.51041666666</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="2">
+        <v>44834.51388888889</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="2">
+        <v>44834.51736111111</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="2">
+        <v>44834.52083333334</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="2">
+        <v>44834.52430555555</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="2">
+        <v>44834.52777777778</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="2">
+        <v>44834.53125</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="2">
+        <v>44834.53472222222</v>
+      </c>
+      <c r="B344">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="2">
+        <v>44834.53819444445</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="2">
+        <v>44834.54166666666</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="2">
+        <v>44834.54513888889</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="2">
+        <v>44834.54861111111</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="2">
+        <v>44834.55208333334</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="2">
+        <v>44834.55555555555</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="2">
+        <v>44834.55902777778</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="2">
+        <v>44834.5625</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="2">
+        <v>44834.56597222222</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="2">
+        <v>44834.56944444445</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="2">
+        <v>44834.57291666666</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="2">
+        <v>44834.57638888889</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="2">
+        <v>44834.57986111111</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="2">
+        <v>44834.58333333334</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="2">
+        <v>44834.58680555555</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="2">
+        <v>44834.59027777778</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="2">
+        <v>44834.59375</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="2">
+        <v>44834.59722222222</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="2">
+        <v>44834.60069444445</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="2">
+        <v>44834.60416666666</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="2">
+        <v>44834.60763888889</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="2">
+        <v>44834.61111111111</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="2">
+        <v>44834.61458333334</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="2">
+        <v>44834.61805555555</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="2">
+        <v>44834.62152777778</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="2">
+        <v>44834.625</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="2">
+        <v>44834.62847222222</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="2">
+        <v>44834.63194444445</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="2">
+        <v>44834.63541666666</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="2">
+        <v>44834.63888888889</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="2">
+        <v>44834.64236111111</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="2">
+        <v>44834.64583333334</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="2">
+        <v>44834.64930555555</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="2">
+        <v>44834.65277777778</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="2">
+        <v>44834.65625</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="2">
+        <v>44834.65972222222</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="2">
+        <v>44834.66319444445</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="2">
+        <v>44834.66666666666</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="2">
+        <v>44834.67013888889</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="2">
+        <v>44834.67361111111</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="2">
+        <v>44834.67708333334</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="2">
+        <v>44834.68055555555</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="2">
+        <v>44834.68402777778</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="2">
+        <v>44834.6875</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="2">
+        <v>44834.69097222222</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="2">
+        <v>44834.69444444445</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="2">
+        <v>44834.69791666666</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="2">
+        <v>44834.70138888889</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="2">
+        <v>44834.70486111111</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="2">
+        <v>44834.70833333334</v>
+      </c>
+      <c r="B394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="2">
+        <v>44834.71180555555</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="2">
+        <v>44834.71527777778</v>
+      </c>
+      <c r="B396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="2">
+        <v>44834.71875</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="2">
+        <v>44834.72222222222</v>
+      </c>
+      <c r="B398">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="2">
+        <v>44834.72569444445</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="2">
+        <v>44834.72916666666</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="2">
+        <v>44834.73263888889</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="2">
+        <v>44834.73611111111</v>
+      </c>
+      <c r="B402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="2">
+        <v>44834.73958333334</v>
+      </c>
+      <c r="B403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="2">
+        <v>44834.74305555555</v>
+      </c>
+      <c r="B404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="2">
+        <v>44834.74652777778</v>
+      </c>
+      <c r="B405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="2">
+        <v>44834.75</v>
+      </c>
+      <c r="B406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="2">
+        <v>44834.75347222222</v>
+      </c>
+      <c r="B407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="2">
+        <v>44834.75694444445</v>
+      </c>
+      <c r="B408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="2">
+        <v>44834.76041666666</v>
+      </c>
+      <c r="B409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="2">
+        <v>44834.76388888889</v>
+      </c>
+      <c r="B410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="2">
+        <v>44834.76736111111</v>
+      </c>
+      <c r="B411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="2">
+        <v>44834.77083333334</v>
+      </c>
+      <c r="B412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="2">
+        <v>44834.77430555555</v>
+      </c>
+      <c r="B413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="2">
+        <v>44834.77777777778</v>
+      </c>
+      <c r="B414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="2">
+        <v>44834.78125</v>
+      </c>
+      <c r="B415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="2">
+        <v>44834.78472222222</v>
+      </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="2">
+        <v>44834.78819444445</v>
+      </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="2">
+        <v>44834.79166666666</v>
+      </c>
+      <c r="B418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="2">
+        <v>44834.79513888889</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="2">
+        <v>44834.79861111111</v>
+      </c>
+      <c r="B420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="2">
+        <v>44834.80208333334</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="2">
+        <v>44834.80555555555</v>
+      </c>
+      <c r="B422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="2">
+        <v>44834.80902777778</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="2">
+        <v>44834.8125</v>
+      </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="2">
+        <v>44834.81597222222</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="2">
+        <v>44834.81944444445</v>
+      </c>
+      <c r="B426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="2">
+        <v>44834.82291666666</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="2">
+        <v>44834.82638888889</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="2">
+        <v>44834.82986111111</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="2">
+        <v>44834.83333333334</v>
+      </c>
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="2">
+        <v>44834.83680555555</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="2">
+        <v>44834.84027777778</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="2">
+        <v>44834.84375</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="2">
+        <v>44834.84722222222</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="2">
+        <v>44834.85069444445</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="2">
+        <v>44834.85416666666</v>
+      </c>
+      <c r="B436">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="2">
+        <v>44834.85763888889</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="2">
+        <v>44834.86111111111</v>
+      </c>
+      <c r="B438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="2">
+        <v>44834.86458333334</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="2">
+        <v>44834.86805555555</v>
+      </c>
+      <c r="B440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="2">
+        <v>44834.87152777778</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="2">
+        <v>44834.875</v>
+      </c>
+      <c r="B442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="2">
+        <v>44834.87847222222</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="2">
+        <v>44834.88194444445</v>
+      </c>
+      <c r="B444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="2">
+        <v>44834.88541666666</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="2">
+        <v>44834.88888888889</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="2">
+        <v>44834.89236111111</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="2">
+        <v>44834.89583333334</v>
+      </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="2">
+        <v>44834.89930555555</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="2">
+        <v>44834.90277777778</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="2">
+        <v>44834.90625</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="2">
+        <v>44834.90972222222</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="2">
+        <v>44834.91319444445</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="2">
+        <v>44834.91666666666</v>
+      </c>
+      <c r="B454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="2">
+        <v>44834.92013888889</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="2">
+        <v>44834.92361111111</v>
+      </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="2">
+        <v>44834.92708333334</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="2">
+        <v>44834.93055555555</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="2">
+        <v>44834.93402777778</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="2">
+        <v>44834.9375</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="2">
+        <v>44834.94097222222</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="2">
+        <v>44834.94444444445</v>
+      </c>
+      <c r="B462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="2">
+        <v>44834.94791666666</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="2">
+        <v>44834.95138888889</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="2">
+        <v>44834.95486111111</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="2">
+        <v>44834.95833333334</v>
+      </c>
+      <c r="B466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="2">
+        <v>44834.96180555555</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="2">
+        <v>44834.96527777778</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="2">
+        <v>44834.96875</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="2">
+        <v>44834.97222222222</v>
+      </c>
+      <c r="B470">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="2">
+        <v>44834.97569444445</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="2">
+        <v>44834.97916666666</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="2">
+        <v>44834.98263888889</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="2">
+        <v>44834.98611111111</v>
+      </c>
+      <c r="B474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="2">
+        <v>44834.98958333334</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="2">
+        <v>44834.99305555555</v>
+      </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="2">
+        <v>44834.99652777778</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="2">
+        <v>44835</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="2">
+        <v>44835.00347222222</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="2">
+        <v>44835.00694444445</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="2">
+        <v>44835.01041666666</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="2">
+        <v>44835.01388888889</v>
+      </c>
+      <c r="B482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="2">
+        <v>44835.01736111111</v>
+      </c>
+      <c r="B483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="2">
+        <v>44835.02083333334</v>
+      </c>
+      <c r="B484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="2">
+        <v>44835.02430555555</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="2">
+        <v>44835.02777777778</v>
+      </c>
+      <c r="B486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="2">
+        <v>44835.03125</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="2">
+        <v>44835.03472222222</v>
+      </c>
+      <c r="B488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="2">
+        <v>44835.03819444445</v>
+      </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="2">
+        <v>44835.04166666666</v>
+      </c>
+      <c r="B490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="2">
+        <v>44835.04513888889</v>
+      </c>
+      <c r="B491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="2">
+        <v>44835.04861111111</v>
+      </c>
+      <c r="B492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="2">
+        <v>44835.05208333334</v>
+      </c>
+      <c r="B493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="2">
+        <v>44835.05555555555</v>
+      </c>
+      <c r="B494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="2">
+        <v>44835.05902777778</v>
+      </c>
+      <c r="B495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="2">
+        <v>44835.0625</v>
+      </c>
+      <c r="B496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="2">
+        <v>44835.06597222222</v>
+      </c>
+      <c r="B497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="2">
+        <v>44835.06944444445</v>
+      </c>
+      <c r="B498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="2">
+        <v>44835.07291666666</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="2">
+        <v>44835.07638888889</v>
+      </c>
+      <c r="B500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="2">
+        <v>44835.07986111111</v>
+      </c>
+      <c r="B501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="2">
+        <v>44835.08333333334</v>
+      </c>
+      <c r="B502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="2">
+        <v>44835.08680555555</v>
+      </c>
+      <c r="B503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="2">
+        <v>44835.09027777778</v>
+      </c>
+      <c r="B504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="2">
+        <v>44835.09375</v>
+      </c>
+      <c r="B505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="2">
+        <v>44835.09722222222</v>
+      </c>
+      <c r="B506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="2">
+        <v>44835.10069444445</v>
+      </c>
+      <c r="B507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="2">
+        <v>44835.10416666666</v>
+      </c>
+      <c r="B508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="2">
+        <v>44835.10763888889</v>
+      </c>
+      <c r="B509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="2">
+        <v>44835.11111111111</v>
+      </c>
+      <c r="B510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="2">
+        <v>44835.11458333334</v>
+      </c>
+      <c r="B511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="2">
+        <v>44835.11805555555</v>
+      </c>
+      <c r="B512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="2">
+        <v>44835.12152777778</v>
+      </c>
+      <c r="B513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="2">
+        <v>44835.125</v>
+      </c>
+      <c r="B514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="2">
+        <v>44835.12847222222</v>
+      </c>
+      <c r="B515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="2">
+        <v>44835.13194444445</v>
+      </c>
+      <c r="B516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="2">
+        <v>44835.13541666666</v>
+      </c>
+      <c r="B517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="2">
+        <v>44835.13888888889</v>
+      </c>
+      <c r="B518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="2">
+        <v>44835.14236111111</v>
+      </c>
+      <c r="B519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="2">
+        <v>44835.14583333334</v>
+      </c>
+      <c r="B520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="2">
+        <v>44835.14930555555</v>
+      </c>
+      <c r="B521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="2">
+        <v>44835.15277777778</v>
+      </c>
+      <c r="B522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="2">
+        <v>44835.15625</v>
+      </c>
+      <c r="B523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="2">
+        <v>44835.15972222222</v>
+      </c>
+      <c r="B524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="2">
+        <v>44835.16319444445</v>
+      </c>
+      <c r="B525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="2">
+        <v>44835.16666666666</v>
+      </c>
+      <c r="B526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="2">
+        <v>44835.17013888889</v>
+      </c>
+      <c r="B527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="2">
+        <v>44835.17361111111</v>
+      </c>
+      <c r="B528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="2">
+        <v>44835.17708333334</v>
+      </c>
+      <c r="B529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="2">
+        <v>44835.18055555555</v>
+      </c>
+      <c r="B530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="2">
+        <v>44835.18402777778</v>
+      </c>
+      <c r="B531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="2">
+        <v>44835.1875</v>
+      </c>
+      <c r="B532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="2">
+        <v>44835.19097222222</v>
+      </c>
+      <c r="B533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="2">
+        <v>44835.19444444445</v>
+      </c>
+      <c r="B534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="2">
+        <v>44835.19791666666</v>
+      </c>
+      <c r="B535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="2">
+        <v>44835.20138888889</v>
+      </c>
+      <c r="B536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="2">
+        <v>44835.20486111111</v>
+      </c>
+      <c r="B537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="2">
+        <v>44835.20833333334</v>
+      </c>
+      <c r="B538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="2">
+        <v>44835.21180555555</v>
+      </c>
+      <c r="B539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="2">
+        <v>44835.21527777778</v>
+      </c>
+      <c r="B540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="2">
+        <v>44835.21875</v>
+      </c>
+      <c r="B541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="2">
+        <v>44835.22222222222</v>
+      </c>
+      <c r="B542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="2">
+        <v>44835.22569444445</v>
+      </c>
+      <c r="B543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="2">
+        <v>44835.22916666666</v>
+      </c>
+      <c r="B544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="2">
+        <v>44835.23263888889</v>
+      </c>
+      <c r="B545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="2">
+        <v>44835.23611111111</v>
+      </c>
+      <c r="B546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="2">
+        <v>44835.23958333334</v>
+      </c>
+      <c r="B547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="2">
+        <v>44835.24305555555</v>
+      </c>
+      <c r="B548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="2">
+        <v>44835.24652777778</v>
+      </c>
+      <c r="B549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="2">
+        <v>44835.25</v>
+      </c>
+      <c r="B550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="2">
+        <v>44835.25347222222</v>
+      </c>
+      <c r="B551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="2">
+        <v>44835.25694444445</v>
+      </c>
+      <c r="B552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="2">
+        <v>44835.26041666666</v>
+      </c>
+      <c r="B553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="2">
+        <v>44835.26388888889</v>
+      </c>
+      <c r="B554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="2">
+        <v>44835.26736111111</v>
+      </c>
+      <c r="B555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="2">
+        <v>44835.27083333334</v>
+      </c>
+      <c r="B556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="2">
+        <v>44835.27430555555</v>
+      </c>
+      <c r="B557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="2">
+        <v>44835.27777777778</v>
+      </c>
+      <c r="B558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="2">
+        <v>44835.28125</v>
+      </c>
+      <c r="B559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="2">
+        <v>44835.28472222222</v>
+      </c>
+      <c r="B560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="2">
+        <v>44835.28819444445</v>
+      </c>
+      <c r="B561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="2">
+        <v>44835.29166666666</v>
+      </c>
+      <c r="B562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="2">
+        <v>44835.29513888889</v>
+      </c>
+      <c r="B563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="2">
+        <v>44835.29861111111</v>
+      </c>
+      <c r="B564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="2">
+        <v>44835.30208333334</v>
+      </c>
+      <c r="B565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="2">
+        <v>44835.30555555555</v>
+      </c>
+      <c r="B566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="2">
+        <v>44835.30902777778</v>
+      </c>
+      <c r="B567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="2">
+        <v>44835.3125</v>
+      </c>
+      <c r="B568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="2">
+        <v>44835.31597222222</v>
+      </c>
+      <c r="B569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="2">
+        <v>44835.31944444445</v>
+      </c>
+      <c r="B570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="2">
+        <v>44835.32291666666</v>
+      </c>
+      <c r="B571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="2">
+        <v>44835.32638888889</v>
+      </c>
+      <c r="B572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="2">
+        <v>44835.32986111111</v>
+      </c>
+      <c r="B573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="2">
+        <v>44835.33333333334</v>
+      </c>
+      <c r="B574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="2">
+        <v>44835.33680555555</v>
+      </c>
+      <c r="B575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="2">
+        <v>44835.34027777778</v>
+      </c>
+      <c r="B576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="2">
+        <v>44835.34375</v>
+      </c>
+      <c r="B577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="2">
+        <v>44835.34722222222</v>
+      </c>
+      <c r="B578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="2">
+        <v>44835.35069444445</v>
+      </c>
+      <c r="B579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="2">
+        <v>44835.35416666666</v>
+      </c>
+      <c r="B580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="2">
+        <v>44835.35763888889</v>
+      </c>
+      <c r="B581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="2">
+        <v>44835.36111111111</v>
+      </c>
+      <c r="B582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="2">
+        <v>44835.36458333334</v>
+      </c>
+      <c r="B583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="2">
+        <v>44835.36805555555</v>
+      </c>
+      <c r="B584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="2">
+        <v>44835.37152777778</v>
+      </c>
+      <c r="B585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="2">
+        <v>44835.375</v>
+      </c>
+      <c r="B586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="2">
+        <v>44835.37847222222</v>
+      </c>
+      <c r="B587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="2">
+        <v>44835.38194444445</v>
+      </c>
+      <c r="B588">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="2">
+        <v>44835.38541666666</v>
+      </c>
+      <c r="B589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="2">
+        <v>44835.38888888889</v>
+      </c>
+      <c r="B590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="2">
+        <v>44835.39236111111</v>
+      </c>
+      <c r="B591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="2">
+        <v>44835.39583333334</v>
+      </c>
+      <c r="B592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="2">
+        <v>44835.39930555555</v>
+      </c>
+      <c r="B593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="2">
+        <v>44835.40277777778</v>
+      </c>
+      <c r="B594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="2">
+        <v>44835.40625</v>
+      </c>
+      <c r="B595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="2">
+        <v>44835.40972222222</v>
+      </c>
+      <c r="B596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="2">
+        <v>44835.41319444445</v>
+      </c>
+      <c r="B597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="2">
+        <v>44835.41666666666</v>
+      </c>
+      <c r="B598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="2">
+        <v>44835.42013888889</v>
+      </c>
+      <c r="B599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="2">
+        <v>44835.42361111111</v>
+      </c>
+      <c r="B600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="2">
+        <v>44835.42708333334</v>
+      </c>
+      <c r="B601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="2">
+        <v>44835.43055555555</v>
+      </c>
+      <c r="B602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="2">
+        <v>44835.43402777778</v>
+      </c>
+      <c r="B603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="2">
+        <v>44835.4375</v>
+      </c>
+      <c r="B604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="2">
+        <v>44835.44097222222</v>
+      </c>
+      <c r="B605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="2">
+        <v>44835.44444444445</v>
+      </c>
+      <c r="B606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="2">
+        <v>44835.44791666666</v>
+      </c>
+      <c r="B607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="2">
+        <v>44835.45138888889</v>
+      </c>
+      <c r="B608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="2">
+        <v>44835.45486111111</v>
+      </c>
+      <c r="B609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="2">
+        <v>44835.45833333334</v>
+      </c>
+      <c r="B610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="2">
+        <v>44835.46180555555</v>
+      </c>
+      <c r="B611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="2">
+        <v>44835.46527777778</v>
+      </c>
+      <c r="B612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="2">
+        <v>44835.46875</v>
+      </c>
+      <c r="B613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="2">
+        <v>44835.47222222222</v>
+      </c>
+      <c r="B614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="2">
+        <v>44835.47569444445</v>
+      </c>
+      <c r="B615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="2">
+        <v>44835.47916666666</v>
+      </c>
+      <c r="B616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="2">
+        <v>44835.48263888889</v>
+      </c>
+      <c r="B617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="2">
+        <v>44835.48611111111</v>
+      </c>
+      <c r="B618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="2">
+        <v>44835.48958333334</v>
+      </c>
+      <c r="B619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="2">
+        <v>44835.49305555555</v>
+      </c>
+      <c r="B620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="2">
+        <v>44835.49652777778</v>
+      </c>
+      <c r="B621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="2">
+        <v>44835.5</v>
+      </c>
+      <c r="B622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="2">
+        <v>44835.50347222222</v>
+      </c>
+      <c r="B623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="2">
+        <v>44835.50694444445</v>
+      </c>
+      <c r="B624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="2">
+        <v>44835.51041666666</v>
+      </c>
+      <c r="B625">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
